--- a/My Job/2020-09-17.xlsx
+++ b/My Job/2020-09-17.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studium\6-BA\Bachelor_Arbeit\My Job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FB2907-42BB-4290-9CD8-BC2C4A93295B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7202A95-47F9-4E2F-A74D-1EF88D214341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>2002-01——2012-09</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +57,10 @@
   </si>
   <si>
     <t>ET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre minus ET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,10 +104,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -376,21 +392,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
-    <col min="2" max="2" width="44.375" customWidth="1"/>
-    <col min="3" max="3" width="44.125" customWidth="1"/>
-    <col min="4" max="4" width="46.875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -402,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -416,7 +432,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -430,7 +446,7 @@
         <v>43.415300000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -442,6 +458,23 @@
       </c>
       <c r="D4" s="1">
         <v>36.023299999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <f>B3-B4</f>
+        <v>6.3913000000000011</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:D5" si="0">C3-C4</f>
+        <v>12.584200000000003</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>7.392000000000003</v>
       </c>
     </row>
   </sheetData>
